--- a/Excel/11. Dynamic Dropdown LIst/dynamic_list.xlsx
+++ b/Excel/11. Dynamic Dropdown LIst/dynamic_list.xlsx
@@ -5,29 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Advance_Excel_BI\11. Dynamic Dropdown LIst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DC_DDS_02\Excel\11. Dynamic Dropdown LIst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ABBEE4-C9A4-4274-87BE-456831657081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614CBD5F-198F-41AB-8968-5CD483098EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{DFBDDC44-5B26-4933-9FE5-39F5FC447B3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{DFBDDC44-5B26-4933-9FE5-39F5FC447B3C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="dropdown" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Canada" localSheetId="1">Sheet2!$I$6:$I$8</definedName>
-    <definedName name="Canada">Sheet1!$I$7:$I$9</definedName>
-    <definedName name="China" localSheetId="1">Sheet2!$H$6:$H$8</definedName>
-    <definedName name="China">Sheet1!$H$7:$H$9</definedName>
-    <definedName name="Cities">Sheet1!$F$6:$I$6</definedName>
-    <definedName name="Countries" localSheetId="0">Sheet1!$F$6:$I$6</definedName>
-    <definedName name="Country">Sheet1!$F$6:$I$11</definedName>
-    <definedName name="India" localSheetId="1">Sheet2!$F$6:$F$10</definedName>
-    <definedName name="India">Sheet1!$F$7:$F$11</definedName>
-    <definedName name="Malaysia" localSheetId="1">Sheet2!$G$6:$G$8</definedName>
-    <definedName name="Malaysia">Sheet1!$G$7:$G$9</definedName>
+    <definedName name="Canada">dropdown!$O$10:$O$12</definedName>
+    <definedName name="China">dropdown!$N$10:$N$12</definedName>
+    <definedName name="India">dropdown!$L$10:$L$14</definedName>
+    <definedName name="Malaysia">dropdown!$M$10:$M$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>India</t>
   </si>
@@ -127,17 +119,32 @@
     </r>
   </si>
   <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>cities</t>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +156,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -516,22 +529,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EDE40A-0F65-4963-A264-306376672C98}">
-  <dimension ref="A1:P15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06261BD4-534C-4C5E-81FE-F0E75A389921}">
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
+    <col min="12" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -540,255 +550,168 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F6" s="1" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M10" t="s">
         <v>9</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N10" t="s">
         <v>12</v>
       </c>
-      <c r="I7" t="s">
+      <c r="O10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="M11" t="s">
         <v>10</v>
       </c>
-      <c r="H8" t="s">
+      <c r="N11" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s">
+      <c r="O11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
+      <c r="Q11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
         <v>6</v>
       </c>
-      <c r="G9" t="s">
+      <c r="M12" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="N12" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
+      <c r="O12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
+      <c r="Q12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
+      <c r="Q14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" t="s">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>5</v>
+      <c r="R15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E5"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15 F6:I6 I15" xr:uid="{75CE89D9-919D-4A9D-A8D7-5C6E8DA32DDD}">
-      <formula1>$F$6:$I$6</formula1>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q12:Q15" xr:uid="{E95D31C5-3F34-4F54-A42A-6443DD883ECF}">
+      <formula1>$L$9:$O$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G15" xr:uid="{6917C64A-0B15-4254-99F6-D2D7DA87BE73}">
-      <formula1>INDIRECT($F$15)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J15" xr:uid="{5B0D99B1-A266-4615-88FE-179B61EEF876}">
-      <formula1>INDIRECT($I$15)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6699DF56-C96D-45AB-844A-7604D6DD89A2}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:D1" xr:uid="{D6855DE9-4DDB-4275-8C57-F1A401D88156}">
-      <formula1>$F$6:$I$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K13" xr:uid="{4B772EF0-42BB-4536-B7B8-2A6EF89D59EE}">
-      <formula1>$F$5:$I$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L13" xr:uid="{D231E5A2-317A-44F1-A7A5-4A9283495CED}">
-      <formula1>INDIRECT($K$13)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R12:R15" xr:uid="{D5FBBB2D-8771-45FD-8A32-B7E2744815DE}">
+      <formula1>INDIRECT($Q12)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
